--- a/Teileliste.xlsx
+++ b/Teileliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexs\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexs\Documents\GitHub\DCC-Decoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979C3CC9-0FC1-43D2-A61F-E5C1383EA305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A84E127-88E2-4C14-B4E0-E35E8C2E140D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCC_Decoder_1.0" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="141">
   <si>
     <t>Value</t>
   </si>
@@ -433,9 +433,6 @@
   </si>
   <si>
     <t>Diode</t>
-  </si>
-  <si>
-    <t>Preis je Servoausgang</t>
   </si>
   <si>
     <t>DC/DC Wandler 5V, 2A</t>
@@ -1590,19 +1587,19 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.21875" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.88671875" style="1" customWidth="1"/>
@@ -1614,7 +1611,7 @@
     <col min="17" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1658,7 +1655,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1706,11 +1703,8 @@
         <f t="shared" ref="N2:N30" si="2">M2*G2</f>
         <v>0.64</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
@@ -1758,7 +1752,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>82</v>
       </c>
@@ -1805,7 +1799,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1852,7 +1846,7 @@
         <v>0.49000000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1899,7 +1893,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1946,7 +1940,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1993,7 +1987,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -2040,7 +2034,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -2087,7 +2081,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>70</v>
       </c>
@@ -2098,13 +2092,13 @@
         <v>71</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G11" s="2">
         <v>4.54</v>
@@ -2134,7 +2128,7 @@
         <v>9.08</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -2175,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -2222,7 +2216,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>9</v>
@@ -2267,7 +2261,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2316,7 +2310,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>5</v>
@@ -2466,7 +2460,7 @@
         <v>46</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>77</v>
@@ -2513,7 +2507,7 @@
         <v>57</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>77</v>
@@ -2656,7 +2650,7 @@
         <v>66</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>77</v>
@@ -2838,7 +2832,7 @@
         <v>52</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>78</v>
@@ -2885,7 +2879,7 @@
         <v>54</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>77</v>

--- a/Teileliste.xlsx
+++ b/Teileliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexs\Documents\GitHub\DCC-Decoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF3DD39-985E-4C57-A046-00305C5870BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F474C4FF-4C0A-4FB0-9CAC-A7E15960F3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="173">
   <si>
     <t>Value</t>
   </si>
@@ -456,12 +456,6 @@
     <t>P-Channel MOSFET</t>
   </si>
   <si>
-    <t>THT Variante</t>
-  </si>
-  <si>
-    <t>SMD Variante</t>
-  </si>
-  <si>
     <t>ARD ATMEGA 328</t>
   </si>
   <si>
@@ -531,9 +525,6 @@
     <t>&gt;24V //Netzteil -&gt; THT</t>
   </si>
   <si>
-    <t xml:space="preserve"> //Netzteil -&gt; THT</t>
-  </si>
-  <si>
     <t>//Netzteil -&gt; THT</t>
   </si>
   <si>
@@ -550,13 +541,22 @@
   </si>
   <si>
     <t>C404969</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>//ALT.: R-78B5.0-2.0 //Netzteil -&gt; THT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,12 +721,6 @@
       <sz val="11"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Bahnschrift Light"/>
       <family val="2"/>
     </font>
     <font>
@@ -1092,9 +1086,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1102,9 +1096,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1184,7 +1177,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1219,26 +1211,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1408,6 +1380,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Bahnschrift Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <strike val="0"/>
         <outline val="0"/>
@@ -1420,6 +1405,41 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1450,21 +1470,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1629,19 +1635,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Bahnschrift Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1656,10 +1649,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64007D75-415E-481F-8987-69E199E4365A}" name="Tabelle1" displayName="Tabelle1" ref="A2:N31" totalsRowShown="0" headerRowDxfId="31" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64007D75-415E-481F-8987-69E199E4365A}" name="Tabelle1" displayName="Tabelle1" ref="A2:N31" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A2:N31" xr:uid="{64007D75-415E-481F-8987-69E199E4365A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N31">
-    <sortCondition ref="D2:D31"/>
+    <sortCondition descending="1" ref="G2:G31"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="2" xr3:uid="{AB4D3701-623E-4257-B2F3-6293FA56BA95}" name="Value" dataDxfId="29"/>
@@ -1671,15 +1664,15 @@
     <tableColumn id="9" xr3:uid="{7DEDACC3-4073-4151-94A5-2A673D73D1A3}" name="Einzelpreis" dataDxfId="23"/>
     <tableColumn id="11" xr3:uid="{DAA590E1-0918-4B49-8263-E034D6A9503F}" name="Anmerkungen" dataDxfId="22"/>
     <tableColumn id="1" xr3:uid="{22BC673A-BB2D-4FB7-B3BF-749AB73D7079}" name="Menge 16" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{3FC4E39E-2C37-4884-BBB6-B4B347DB8C11}" name="Gesamt 16" dataDxfId="3">
+    <tableColumn id="10" xr3:uid="{3FC4E39E-2C37-4884-BBB6-B4B347DB8C11}" name="Gesamt 16" dataDxfId="20">
       <calculatedColumnFormula>ROUNDUP(G3*I3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{7C56683D-06C0-4C89-97B8-835E6D9ADA16}" name="Menge 12" dataDxfId="20"/>
-    <tableColumn id="20" xr3:uid="{A42909DD-BB86-4A41-8178-64EEF1FB4C62}" name="Gesamt 12" dataDxfId="2">
+    <tableColumn id="13" xr3:uid="{7C56683D-06C0-4C89-97B8-835E6D9ADA16}" name="Menge 12" dataDxfId="19"/>
+    <tableColumn id="20" xr3:uid="{A42909DD-BB86-4A41-8178-64EEF1FB4C62}" name="Gesamt 12" dataDxfId="18">
       <calculatedColumnFormula>ROUNDUP(K3*G3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{27DEB51E-4E78-48C3-99F1-9EBE42DCC774}" name="Menge 6" dataDxfId="19"/>
-    <tableColumn id="19" xr3:uid="{7645B5DF-2B6A-4B9E-90E1-C3E2AC88F226}" name="Gesamt 6" dataDxfId="1">
+    <tableColumn id="14" xr3:uid="{27DEB51E-4E78-48C3-99F1-9EBE42DCC774}" name="Menge 6" dataDxfId="17"/>
+    <tableColumn id="19" xr3:uid="{7645B5DF-2B6A-4B9E-90E1-C3E2AC88F226}" name="Gesamt 6" dataDxfId="16">
       <calculatedColumnFormula>ROUNDUP(M3*G3,2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1688,30 +1681,30 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{707A4E9F-5355-445F-9ECB-4B84C88B5E6B}" name="Tabelle13" displayName="Tabelle13" ref="A34:N63" totalsRowShown="0" headerRowDxfId="30" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{707A4E9F-5355-445F-9ECB-4B84C88B5E6B}" name="Tabelle13" displayName="Tabelle13" ref="A34:N63" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A34:N63" xr:uid="{707A4E9F-5355-445F-9ECB-4B84C88B5E6B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:N63">
-    <sortCondition ref="D34:D63"/>
+    <sortCondition descending="1" ref="G34:G63"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="2" xr3:uid="{065A2CC7-4F1A-4B57-9895-1CF4BD1117CA}" name="Value" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{F595F357-7F3C-4813-BFEE-8D92A1CC8874}" name="Package" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{7BCE5EE9-7A4D-4497-AB9A-580FEA5B3835}" name="Parts" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{20AF3683-B9D7-45E9-81C8-3DF1BEF38BBC}" name="Description" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{B0BF39C8-E1CF-404D-B08E-5D4ECF868E13}" name="Händler" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{45C29503-8DE5-45C6-9DB6-EB11D0BF7753}" name="Bestellnr." dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{A4C4F609-2AD0-46E2-A85D-CE0F438B552A}" name="Einzelpreis" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{FFDDCF3F-B88B-4E55-B012-CB4225A0D271}" name="Anmerkungen" dataDxfId="10"/>
-    <tableColumn id="1" xr3:uid="{4493C302-B085-47CC-90BD-BB2D5D774B90}" name="Menge 16" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{11D793DA-163E-4148-B9A7-EE0316DD2CAB}" name="Gesamt 16" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{065A2CC7-4F1A-4B57-9895-1CF4BD1117CA}" name="Value" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{F595F357-7F3C-4813-BFEE-8D92A1CC8874}" name="Package" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{7BCE5EE9-7A4D-4497-AB9A-580FEA5B3835}" name="Parts" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{20AF3683-B9D7-45E9-81C8-3DF1BEF38BBC}" name="Description" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{B0BF39C8-E1CF-404D-B08E-5D4ECF868E13}" name="Händler" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{45C29503-8DE5-45C6-9DB6-EB11D0BF7753}" name="Bestellnr." dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{A4C4F609-2AD0-46E2-A85D-CE0F438B552A}" name="Einzelpreis" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{FFDDCF3F-B88B-4E55-B012-CB4225A0D271}" name="Anmerkungen" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{4493C302-B085-47CC-90BD-BB2D5D774B90}" name="Menge 16" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{11D793DA-163E-4148-B9A7-EE0316DD2CAB}" name="Gesamt 16" dataDxfId="4">
       <calculatedColumnFormula>ROUNDUP(G35*I35,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{A5D3BC79-8ADD-474C-8E52-893825C98EE9}" name="Menge 12" dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{6F6D8AE0-D259-460A-9ECD-B40A83A2A48A}" name="Gesamt 12" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{A5D3BC79-8ADD-474C-8E52-893825C98EE9}" name="Menge 12" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{6F6D8AE0-D259-460A-9ECD-B40A83A2A48A}" name="Gesamt 12" dataDxfId="2">
       <calculatedColumnFormula>ROUNDUP(K35*G35,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{E219A0F4-14B8-4B8C-8BF1-EF5C66FA1A89}" name="Menge 6" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{140E5321-15BC-44E5-9301-0B44EEA24645}" name="Gesamt 6" dataDxfId="5">
+    <tableColumn id="14" xr3:uid="{E219A0F4-14B8-4B8C-8BF1-EF5C66FA1A89}" name="Menge 6" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{140E5321-15BC-44E5-9301-0B44EEA24645}" name="Gesamt 6" dataDxfId="0">
       <calculatedColumnFormula>ROUNDUP(M35*G35,2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2018,8 +2011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2031,7 +2024,7 @@
     <col min="5" max="5" width="13.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="41.88671875" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.88671875" style="1" customWidth="1"/>
@@ -2043,9 +2036,9 @@
     <col min="17" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2106,10 +2099,10 @@
         <v>96</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G3" s="4">
         <v>5.15</v>
@@ -2119,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" ref="J3:J31" si="0">ROUNDUP(G3*I3,2)</f>
+        <f>ROUNDUP(G3*I3,2)</f>
         <v>5.15</v>
       </c>
       <c r="K3" s="4">
@@ -2127,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="4">
-        <f t="shared" ref="L3:L31" si="1">ROUNDUP(K3*G3,2)</f>
+        <f>ROUNDUP(K3*G3,2)</f>
         <v>5.15</v>
       </c>
       <c r="M3" s="4">
@@ -2135,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="4">
-        <f t="shared" ref="N3:N31" si="2">ROUNDUP(M3*G3,2)</f>
+        <f>ROUNDUP(M3*G3,2)</f>
         <v>5.15</v>
       </c>
     </row>
@@ -2162,13 +2155,13 @@
         <v>4.54</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I4" s="4">
         <v>4</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(G4*I4,2)</f>
         <v>18.16</v>
       </c>
       <c r="K4" s="4">
@@ -2176,7 +2169,7 @@
         <v>3</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" si="1"/>
+        <f>ROUNDUP(K4*G4,2)</f>
         <v>13.62</v>
       </c>
       <c r="M4" s="4">
@@ -2184,1093 +2177,1101 @@
         <v>2</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" si="2"/>
+        <f>ROUNDUP(M4*G4,2)</f>
         <v>9.08</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="G5" s="4">
-        <v>0.05</v>
+        <v>2.56</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4">
         <v>1</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <f>ROUNDUP(G5*I5,2)</f>
+        <v>2.56</v>
       </c>
       <c r="K5" s="4">
         <f>I5</f>
         <v>1</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.05</v>
+        <f>ROUNDUP(K5*G5,2)</f>
+        <v>2.56</v>
       </c>
       <c r="M5" s="4">
-        <f>I5</f>
+        <f>K5</f>
         <v>1</v>
       </c>
       <c r="N5" s="4">
-        <f t="shared" si="2"/>
-        <v>0.05</v>
+        <f>ROUNDUP(M5*G5,2)</f>
+        <v>2.56</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>76</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4">
-        <v>0.18</v>
+        <v>2.38</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>2.88</v>
+        <f>ROUNDUP(G6*I6,2)</f>
+        <v>2.38</v>
       </c>
       <c r="K6" s="4">
-        <f>I6/4*3</f>
-        <v>12</v>
+        <f>I6</f>
+        <v>1</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" si="1"/>
-        <v>2.16</v>
+        <f>ROUNDUP(K6*G6,2)</f>
+        <v>2.38</v>
       </c>
       <c r="M6" s="4">
-        <f>I6/4*2</f>
-        <v>8</v>
+        <f>K6</f>
+        <v>1</v>
       </c>
       <c r="N6" s="4">
-        <f t="shared" si="2"/>
-        <v>1.44</v>
+        <f>ROUNDUP(M6*G6,2)</f>
+        <v>2.38</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="G7" s="4">
-        <v>0.18</v>
+        <v>0.746</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="I7" s="4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>1.44</v>
+        <f>ROUNDUP(G7*I7,2)</f>
+        <v>11.94</v>
       </c>
       <c r="K7" s="4">
-        <f>I7/4*3</f>
+        <f>I7-4</f>
+        <v>12</v>
+      </c>
+      <c r="L7" s="4">
+        <f>ROUNDUP(K7*G7,2)</f>
+        <v>8.9599999999999991</v>
+      </c>
+      <c r="M7" s="4">
+        <f>I7-10</f>
         <v>6</v>
       </c>
-      <c r="L7" s="4">
-        <f t="shared" si="1"/>
-        <v>1.08</v>
-      </c>
-      <c r="M7" s="4">
-        <v>4</v>
-      </c>
       <c r="N7" s="4">
-        <f t="shared" si="2"/>
-        <v>0.72</v>
+        <f>ROUNDUP(M7*G7,2)</f>
+        <v>4.4799999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G8" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>74</v>
-      </c>
+        <v>0.71</v>
+      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>1.28</v>
+        <f>ROUNDUP(G8*I8,2)</f>
+        <v>0.71</v>
       </c>
       <c r="K8" s="4">
-        <f>I30*3</f>
-        <v>108</v>
+        <f>I8</f>
+        <v>1</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" si="1"/>
-        <v>17.28</v>
+        <f>ROUNDUP(K8*G8,2)</f>
+        <v>0.71</v>
       </c>
       <c r="M8" s="4">
-        <f>I8/4*2</f>
-        <v>4</v>
+        <f>K8</f>
+        <v>1</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" si="2"/>
-        <v>0.64</v>
+        <f>ROUNDUP(M8*G8,2)</f>
+        <v>0.71</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G9" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
+        <f>ROUNDUP(G9*I9,2)</f>
+        <v>0.64</v>
       </c>
       <c r="K9" s="4">
         <f>I9</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="1"/>
-        <v>0.7</v>
+        <f>ROUNDUP(K9*G9,2)</f>
+        <v>0.64</v>
       </c>
       <c r="M9" s="4">
         <f>I9</f>
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <f>ROUNDUP(M9*G9,2)</f>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="4">
-        <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="G10" s="4">
-        <v>0.13</v>
-      </c>
-      <c r="H10" s="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="I10" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.13</v>
+        <f>ROUNDUP(G10*I10,2)</f>
+        <v>9.6</v>
       </c>
       <c r="K10" s="4">
-        <f>I10</f>
-        <v>1</v>
+        <f>I10-4</f>
+        <v>12</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.13</v>
+        <f>ROUNDUP(K10*G10,2)</f>
+        <v>7.2</v>
       </c>
       <c r="M10" s="4">
-        <f>K10</f>
-        <v>1</v>
+        <f>I10-10</f>
+        <v>6</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="2"/>
-        <v>0.13</v>
+        <f>ROUNDUP(M10*G10,2)</f>
+        <v>3.6</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="G11" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H11" s="4"/>
+        <v>0.49</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="I11" s="4">
         <v>2</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <f>ROUNDUP(G11*I11,2)</f>
+        <v>0.98</v>
       </c>
       <c r="K11" s="4">
         <f>I11</f>
         <v>2</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="1"/>
-        <v>0.14000000000000001</v>
+        <f>ROUNDUP(K11*G11,2)</f>
+        <v>0.98</v>
       </c>
       <c r="M11" s="4">
-        <f>K11</f>
+        <f>I11</f>
         <v>2</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="2"/>
-        <v>0.14000000000000001</v>
+        <f>ROUNDUP(M11*G11,2)</f>
+        <v>0.98</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G12" s="4">
-        <v>0.17</v>
+        <v>0.36</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4">
         <v>1</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.17</v>
+        <f>ROUNDUP(G12*I12,2)</f>
+        <v>0.36</v>
       </c>
       <c r="K12" s="4">
         <f>I12</f>
         <v>1</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.17</v>
+        <f>ROUNDUP(K12*G12,2)</f>
+        <v>0.36</v>
       </c>
       <c r="M12" s="4">
-        <f>K12</f>
+        <f>I12</f>
         <v>1</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="2"/>
-        <v>0.17</v>
+        <f>ROUNDUP(M12*G12,2)</f>
+        <v>0.36</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G13" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H13" s="4"/>
+        <v>0.27</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="I13" s="4">
         <v>1</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <f>ROUNDUP(G13*I13,2)</f>
+        <v>0.27</v>
       </c>
       <c r="K13" s="4">
         <f>I13</f>
         <v>1</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="1"/>
-        <v>0.14000000000000001</v>
+        <f>ROUNDUP(K13*G13,2)</f>
+        <v>0.27</v>
       </c>
       <c r="M13" s="4">
         <f>K13</f>
         <v>1</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="2"/>
-        <v>0.14000000000000001</v>
+        <f>ROUNDUP(M13*G13,2)</f>
+        <v>0.27</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="G14" s="4">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
+        <f>ROUNDUP(G14*I14,2)</f>
+        <v>0.23</v>
       </c>
       <c r="K14" s="4">
-        <f>I14-4-1</f>
-        <v>15</v>
+        <f>I14</f>
+        <v>1</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="1"/>
-        <v>1.95</v>
+        <f>ROUNDUP(K14*G14,2)</f>
+        <v>0.23</v>
       </c>
       <c r="M14" s="4">
-        <f>I14-10-2</f>
-        <v>8</v>
+        <f>I14</f>
+        <v>1</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="2"/>
-        <v>1.04</v>
+        <f>ROUNDUP(M14*G14,2)</f>
+        <v>0.23</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.18</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ROUNDUP(G15*I15,2)</f>
+        <v>2.88</v>
       </c>
       <c r="K15" s="4">
-        <f>I15</f>
-        <v>1</v>
+        <f>I15/4*3</f>
+        <v>12</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>ROUNDUP(K15*G15,2)</f>
+        <v>2.16</v>
       </c>
       <c r="M15" s="4">
-        <f>K15</f>
-        <v>1</v>
+        <f>I15/4*2</f>
+        <v>8</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>ROUNDUP(M15*G15,2)</f>
+        <v>1.44</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="G16" s="4">
         <v>0.18</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="I16" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>2.88</v>
+        <f>ROUNDUP(G16*I16,2)</f>
+        <v>1.44</v>
       </c>
       <c r="K16" s="4">
-        <f>I16-4</f>
-        <v>12</v>
+        <f>I16/4*3</f>
+        <v>6</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="1"/>
-        <v>2.16</v>
+        <f>ROUNDUP(K16*G16,2)</f>
+        <v>1.08</v>
       </c>
       <c r="M16" s="4">
-        <f>I16-10</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="2"/>
-        <v>1.08</v>
+        <f>ROUNDUP(M16*G16,2)</f>
+        <v>0.72</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G17" s="4">
-        <v>0.71</v>
+        <v>0.18</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>0.71</v>
+        <f>ROUNDUP(G17*I17,2)</f>
+        <v>2.88</v>
       </c>
       <c r="K17" s="4">
-        <f>I17</f>
-        <v>1</v>
+        <f>I17-4</f>
+        <v>12</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="1"/>
-        <v>0.71</v>
+        <f>ROUNDUP(K17*G17,2)</f>
+        <v>2.16</v>
       </c>
       <c r="M17" s="4">
-        <f>K17</f>
-        <v>1</v>
+        <f>I17-10</f>
+        <v>6</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="2"/>
-        <v>0.71</v>
+        <f>ROUNDUP(M17*G17,2)</f>
+        <v>1.08</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G18" s="4">
-        <v>0.746</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>117</v>
-      </c>
+        <v>0.17</v>
+      </c>
+      <c r="H18" s="4"/>
       <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4">
+        <f>ROUNDUP(G18*I18,2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="K18" s="4">
+        <f>I18</f>
+        <v>1</v>
+      </c>
+      <c r="L18" s="4">
+        <f>ROUNDUP(K18*G18,2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="M18" s="4">
+        <f>K18</f>
+        <v>1</v>
+      </c>
+      <c r="N18" s="4">
+        <f>ROUNDUP(M18*G18,2)</f>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>11.94</v>
-      </c>
-      <c r="K18" s="4">
-        <f>I18-4</f>
-        <v>12</v>
-      </c>
-      <c r="L18" s="4">
-        <f t="shared" si="1"/>
-        <v>8.9599999999999991</v>
-      </c>
-      <c r="M18" s="4">
-        <f>I18-10</f>
-        <v>6</v>
-      </c>
-      <c r="N18" s="4">
-        <f t="shared" si="2"/>
-        <v>4.4799999999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G19" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="H19" s="4"/>
+        <v>0.16</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="I19" s="4">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
+        <f>ROUNDUP(G19*I19,2)</f>
+        <v>1.28</v>
       </c>
       <c r="K19" s="4">
-        <f>I19-4*2</f>
-        <v>24</v>
+        <f>I41*3</f>
+        <v>48</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
+        <f>ROUNDUP(K19*G19,2)</f>
+        <v>7.68</v>
       </c>
       <c r="M19" s="4">
-        <f>I19-10*2</f>
-        <v>12</v>
+        <f>I19/4*2</f>
+        <v>4</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
+        <f>ROUNDUP(M19*G19,2)</f>
+        <v>0.64</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B20" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G20" s="4">
-        <v>0.23</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.23</v>
+        <f>ROUNDUP(G20*I20,2)</f>
+        <v>0.7</v>
       </c>
       <c r="K20" s="4">
         <f>I20</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="1"/>
-        <v>0.23</v>
+        <f>ROUNDUP(K20*G20,2)</f>
+        <v>0.7</v>
       </c>
       <c r="M20" s="4">
         <f>I20</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="2"/>
-        <v>0.23</v>
+        <f>ROUNDUP(M20*G20,2)</f>
+        <v>0.7</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="D21" s="4" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="G21" s="4">
-        <v>2.38</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4">
         <v>1</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>2.38</v>
+        <f>ROUNDUP(G21*I21,2)</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K21" s="4">
         <f>I21</f>
         <v>1</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="1"/>
-        <v>2.38</v>
+        <f>ROUNDUP(K21*G21,2)</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M21" s="4">
         <f>K21</f>
         <v>1</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="2"/>
-        <v>2.38</v>
+        <f>ROUNDUP(M21*G21,2)</f>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="G22" s="4">
-        <v>0.64</v>
+        <v>0.13</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4">
         <v>1</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="0"/>
-        <v>0.64</v>
+        <f>ROUNDUP(G22*I22,2)</f>
+        <v>0.13</v>
       </c>
       <c r="K22" s="4">
         <f>I22</f>
         <v>1</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="1"/>
-        <v>0.64</v>
+        <f>ROUNDUP(K22*G22,2)</f>
+        <v>0.13</v>
       </c>
       <c r="M22" s="4">
-        <f>I22</f>
+        <f>K22</f>
         <v>1</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="2"/>
-        <v>0.64</v>
+        <f>ROUNDUP(M22*G22,2)</f>
+        <v>0.13</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G23" s="4">
-        <v>0.36</v>
+        <v>0.13</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="0"/>
-        <v>0.36</v>
+        <f>ROUNDUP(G23*I23,2)</f>
+        <v>2.6</v>
       </c>
       <c r="K23" s="4">
-        <f>I23</f>
-        <v>1</v>
+        <f>I23-4-1</f>
+        <v>15</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="1"/>
-        <v>0.36</v>
+        <f>ROUNDUP(K23*G23,2)</f>
+        <v>1.95</v>
       </c>
       <c r="M23" s="4">
-        <f>I23</f>
-        <v>1</v>
+        <f>I23-10-2</f>
+        <v>8</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="2"/>
-        <v>0.36</v>
+        <f>ROUNDUP(M23*G23,2)</f>
+        <v>1.04</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="G24" s="4">
-        <v>0.49</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H24" s="4"/>
       <c r="I24" s="4">
         <v>2</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="0"/>
-        <v>0.98</v>
+        <f>ROUNDUP(G24*I24,2)</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K24" s="4">
         <f>I24</f>
         <v>2</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="1"/>
-        <v>0.98</v>
+        <f>ROUNDUP(K24*G24,2)</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M24" s="4">
-        <f>I24</f>
+        <f>K24</f>
         <v>2</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="2"/>
-        <v>0.98</v>
+        <f>ROUNDUP(M24*G24,2)</f>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="B25" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G25" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H25" s="4"/>
       <c r="I25" s="4">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="0"/>
-        <v>9.6</v>
+        <f>ROUNDUP(G25*I25,2)</f>
+        <v>0.42</v>
       </c>
       <c r="K25" s="4">
-        <f>I25-4</f>
-        <v>12</v>
+        <f>I25-1</f>
+        <v>5</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" si="1"/>
-        <v>7.2</v>
+        <f>ROUNDUP(K25*G25,2)</f>
+        <v>0.35</v>
       </c>
       <c r="M25" s="4">
-        <f>I25-10</f>
-        <v>6</v>
+        <f>I25-2</f>
+        <v>4</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="2"/>
-        <v>3.6</v>
+        <f>ROUNDUP(M25*G25,2)</f>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G26" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H26" s="4"/>
       <c r="I26" s="4">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="0"/>
-        <v>0.27</v>
+        <f>ROUNDUP(G26*I26,2)</f>
+        <v>1.19</v>
       </c>
       <c r="K26" s="4">
-        <f>I26</f>
-        <v>1</v>
+        <f>I26-4</f>
+        <v>13</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" si="1"/>
-        <v>0.27</v>
+        <f>ROUNDUP(K26*G26,2)</f>
+        <v>0.91</v>
       </c>
       <c r="M26" s="4">
-        <f>K26</f>
-        <v>1</v>
+        <f>I26-10</f>
+        <v>7</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="2"/>
-        <v>0.27</v>
+        <f>ROUNDUP(M26*G26,2)</f>
+        <v>0.49</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G27" s="4">
-        <v>2.56</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="0"/>
-        <v>2.56</v>
+        <f>ROUNDUP(G27*I27,2)</f>
+        <v>2.52</v>
       </c>
       <c r="K27" s="4">
-        <f>I27</f>
-        <v>1</v>
+        <f>I27-8</f>
+        <v>28</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="1"/>
-        <v>2.56</v>
+        <f>ROUNDUP(K27*G27,2)</f>
+        <v>1.96</v>
       </c>
       <c r="M27" s="4">
-        <f>K27</f>
-        <v>1</v>
+        <f>I27-20</f>
+        <v>16</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="2"/>
-        <v>2.56</v>
+        <f>ROUNDUP(M27*G27,2)</f>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>131</v>
@@ -3279,176 +3280,168 @@
         <v>78</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G28" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4">
+        <v>16</v>
+      </c>
+      <c r="J28" s="4">
+        <f>ROUNDUP(G28*I28,2)</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="K28" s="4">
+        <f>I28-4</f>
+        <v>12</v>
+      </c>
+      <c r="L28" s="4">
+        <f>ROUNDUP(K28*G28,2)</f>
+        <v>0.84</v>
+      </c>
+      <c r="M28" s="4">
+        <f>I28-10</f>
         <v>6</v>
       </c>
-      <c r="J28" s="4">
-        <f t="shared" si="0"/>
+      <c r="N28" s="4">
+        <f>ROUNDUP(M28*G28,2)</f>
         <v>0.42</v>
-      </c>
-      <c r="K28" s="4">
-        <f>I28-1</f>
-        <v>5</v>
-      </c>
-      <c r="L28" s="4">
-        <f t="shared" si="1"/>
-        <v>0.35</v>
-      </c>
-      <c r="M28" s="4">
-        <f>I28-2</f>
-        <v>4</v>
-      </c>
-      <c r="N28" s="4">
-        <f t="shared" si="2"/>
-        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="G29" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="0"/>
-        <v>1.19</v>
+        <f>ROUNDUP(G29*I29,2)</f>
+        <v>0.05</v>
       </c>
       <c r="K29" s="4">
-        <f>I29-4</f>
-        <v>13</v>
+        <f>I29</f>
+        <v>1</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" si="1"/>
-        <v>0.91</v>
+        <f>ROUNDUP(K29*G29,2)</f>
+        <v>0.05</v>
       </c>
       <c r="M29" s="4">
-        <f>I29-10</f>
+        <f>I29</f>
+        <v>1</v>
+      </c>
+      <c r="N29" s="4">
+        <f>ROUNDUP(M29*G29,2)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N29" s="4">
-        <f t="shared" si="2"/>
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C30" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G30" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="0"/>
-        <v>2.52</v>
+        <f>ROUNDUP(G30*I30,2)</f>
+        <v>1.6</v>
       </c>
       <c r="K30" s="4">
-        <f>I30-8</f>
-        <v>28</v>
+        <f>I30-4*2</f>
+        <v>24</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" si="1"/>
-        <v>1.96</v>
+        <f>ROUNDUP(K30*G30,2)</f>
+        <v>1.2</v>
       </c>
       <c r="M30" s="4">
-        <f>I30-20</f>
-        <v>16</v>
+        <f>I30-10*2</f>
+        <v>12</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="2"/>
-        <v>1.1200000000000001</v>
+        <f>ROUNDUP(M30*G30,2)</f>
+        <v>0.6</v>
       </c>
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G31" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1200000000000001</v>
+        <f>ROUNDUP(G31*I31,2)</f>
+        <v>0</v>
       </c>
       <c r="K31" s="4">
-        <f>I31-4</f>
-        <v>12</v>
+        <f>I31</f>
+        <v>1</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" si="1"/>
-        <v>0.84</v>
+        <f>ROUNDUP(K31*G31,2)</f>
+        <v>0</v>
       </c>
       <c r="M31" s="4">
-        <f>I31-10</f>
-        <v>6</v>
+        <f>K31</f>
+        <v>1</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" si="2"/>
-        <v>0.42</v>
+        <f>ROUNDUP(M31*G31,2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="21" x14ac:dyDescent="0.4">
@@ -3460,34 +3453,34 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="6">
         <f>SUM(Tabelle1[Gesamt 16])</f>
         <v>72.239999999999995</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="6">
         <f>SUM(Tabelle1[Gesamt 12])</f>
-        <v>74.28</v>
-      </c>
-      <c r="M32" s="7" t="s">
+        <v>64.680000000000007</v>
+      </c>
+      <c r="M32" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="6">
         <f>SUM(Tabelle1[Gesamt 6])</f>
-        <v>39.600000000000016</v>
-      </c>
-      <c r="O32" s="7" t="s">
+        <v>39.600000000000009</v>
+      </c>
+      <c r="O32" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.5">
-      <c r="A33" s="6" t="s">
-        <v>142</v>
+      <c r="A33" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3562,22 +3555,22 @@
         <v>96</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G35" s="4">
         <v>5.15</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I35" s="4">
         <v>1</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" ref="J35:J63" si="3">ROUNDUP(G35*I35,2)</f>
+        <f>ROUNDUP(G35*I35,2)</f>
         <v>5.15</v>
       </c>
       <c r="K35" s="4">
@@ -3585,7 +3578,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="4">
-        <f t="shared" ref="L35:L63" si="4">ROUNDUP(K35*G35,2)</f>
+        <f>ROUNDUP(K35*G35,2)</f>
         <v>5.15</v>
       </c>
       <c r="M35" s="4">
@@ -3593,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="N35" s="4">
-        <f t="shared" ref="N35:N63" si="5">ROUNDUP(M35*G35,2)</f>
+        <f>ROUNDUP(M35*G35,2)</f>
         <v>5.15</v>
       </c>
     </row>
@@ -3620,13 +3613,13 @@
         <v>4.54</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="I36" s="4">
         <v>4</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="3"/>
+        <f>ROUNDUP(G36*I36,2)</f>
         <v>18.16</v>
       </c>
       <c r="K36" s="4">
@@ -3634,7 +3627,7 @@
         <v>3</v>
       </c>
       <c r="L36" s="4">
-        <f t="shared" si="4"/>
+        <f>ROUNDUP(K36*G36,2)</f>
         <v>13.62</v>
       </c>
       <c r="M36" s="4">
@@ -3642,1337 +3635,1333 @@
         <v>2</v>
       </c>
       <c r="N36" s="4">
-        <f t="shared" si="5"/>
+        <f>ROUNDUP(M36*G36,2)</f>
         <v>9.08</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>164</v>
+        <v>77</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="G37" s="4">
-        <v>1.11E-2</v>
+        <v>2.56</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I37" s="4">
         <v>1</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="3"/>
-        <v>0.02</v>
+        <f>ROUNDUP(G37*I37,2)</f>
+        <v>2.56</v>
       </c>
       <c r="K37" s="4">
         <f>I37</f>
         <v>1</v>
       </c>
       <c r="L37" s="4">
-        <f t="shared" si="4"/>
-        <v>0.02</v>
+        <f>ROUNDUP(K37*G37,2)</f>
+        <v>2.56</v>
       </c>
       <c r="M37" s="4">
-        <f>I37</f>
+        <f>K37</f>
         <v>1</v>
       </c>
       <c r="N37" s="4">
-        <f t="shared" si="5"/>
-        <v>0.02</v>
+        <f>ROUNDUP(M37*G37,2)</f>
+        <v>2.56</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>76</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F38" s="4"/>
       <c r="G38" s="4">
-        <v>0.18</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>167</v>
-      </c>
+        <v>2.38</v>
+      </c>
+      <c r="H38" s="4"/>
       <c r="I38" s="4">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J38" s="4">
-        <f t="shared" si="3"/>
-        <v>2.88</v>
+        <f>ROUNDUP(G38*I38,2)</f>
+        <v>2.38</v>
       </c>
       <c r="K38" s="4">
-        <f>I38/4*3</f>
-        <v>12</v>
+        <f>I38</f>
+        <v>1</v>
       </c>
       <c r="L38" s="4">
-        <f t="shared" si="4"/>
-        <v>2.16</v>
+        <f>ROUNDUP(K38*G38,2)</f>
+        <v>2.38</v>
       </c>
       <c r="M38" s="4">
-        <f>I38/4*2</f>
-        <v>8</v>
+        <f>K38</f>
+        <v>1</v>
       </c>
       <c r="N38" s="4">
-        <f t="shared" si="5"/>
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <f>ROUNDUP(M38*G38,2)</f>
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>102</v>
+        <v>143</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="G39" s="4">
-        <v>0.18</v>
+        <v>0.34150000000000003</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>165</v>
       </c>
       <c r="I39" s="4">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4">
+        <f>ROUNDUP(G39*I39,2)</f>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="K39" s="4">
+        <f>I39</f>
+        <v>1</v>
+      </c>
+      <c r="L39" s="4">
+        <f>ROUNDUP(K39*G39,2)</f>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="M39" s="4">
+        <f>K39</f>
+        <v>1</v>
+      </c>
+      <c r="N39" s="4">
+        <f>ROUNDUP(M39*G39,2)</f>
+        <v>0.35000000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I40" s="4">
+        <v>16</v>
+      </c>
+      <c r="J40" s="4">
+        <f>ROUNDUP(G40*I40,2)</f>
+        <v>4.13</v>
+      </c>
+      <c r="K40" s="4">
+        <f>I40-4</f>
+        <v>12</v>
+      </c>
+      <c r="L40" s="4">
+        <f>ROUNDUP(K40*G40,2)</f>
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="M40" s="4">
+        <f>I40-10</f>
+        <v>6</v>
+      </c>
+      <c r="N40" s="4">
+        <f>ROUNDUP(M40*G40,2)</f>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I41" s="4">
+        <v>16</v>
+      </c>
+      <c r="J41" s="4">
+        <f>ROUNDUP(G41*I41,2)</f>
+        <v>2.88</v>
+      </c>
+      <c r="K41" s="4">
+        <f>I41/4*3</f>
+        <v>12</v>
+      </c>
+      <c r="L41" s="4">
+        <f>ROUNDUP(K41*G41,2)</f>
+        <v>2.16</v>
+      </c>
+      <c r="M41" s="4">
+        <f>I41/4*2</f>
         <v>8</v>
       </c>
-      <c r="J39" s="4">
-        <f t="shared" si="3"/>
+      <c r="N41" s="4">
+        <f>ROUNDUP(M41*G41,2)</f>
         <v>1.44</v>
       </c>
-      <c r="K39" s="4">
-        <f>I39/4*3</f>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I42" s="4">
+        <v>8</v>
+      </c>
+      <c r="J42" s="4">
+        <f>ROUNDUP(G42*I42,2)</f>
+        <v>1.44</v>
+      </c>
+      <c r="K42" s="4">
+        <f>I42/4*3</f>
         <v>6</v>
       </c>
-      <c r="L39" s="4">
-        <f t="shared" si="4"/>
+      <c r="L42" s="4">
+        <f>ROUNDUP(K42*G42,2)</f>
         <v>1.08</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M42" s="4">
         <v>4</v>
       </c>
-      <c r="N39" s="4">
-        <f t="shared" si="5"/>
+      <c r="N42" s="4">
+        <f>ROUNDUP(M42*G42,2)</f>
         <v>0.72</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="I40" s="4">
-        <v>8</v>
-      </c>
-      <c r="J40" s="4">
-        <f t="shared" si="3"/>
-        <v>1.28</v>
-      </c>
-      <c r="K40" s="4">
-        <f>I62*3</f>
-        <v>108</v>
-      </c>
-      <c r="L40" s="4">
-        <f t="shared" si="4"/>
-        <v>17.28</v>
-      </c>
-      <c r="M40" s="4">
-        <f>I40/4*2</f>
-        <v>4</v>
-      </c>
-      <c r="N40" s="4">
-        <f t="shared" si="5"/>
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="G41" s="4">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4">
-        <v>5</v>
-      </c>
-      <c r="J41" s="4">
-        <f t="shared" si="3"/>
-        <v>0.03</v>
-      </c>
-      <c r="K41" s="4">
-        <f>I41</f>
-        <v>5</v>
-      </c>
-      <c r="L41" s="4">
-        <f t="shared" si="4"/>
-        <v>0.03</v>
-      </c>
-      <c r="M41" s="4">
-        <f>I41</f>
-        <v>5</v>
-      </c>
-      <c r="N41" s="4">
-        <f t="shared" si="5"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G42" s="4">
-        <v>1.23E-2</v>
-      </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4">
-        <v>1</v>
-      </c>
-      <c r="J42" s="4">
-        <f t="shared" si="3"/>
-        <v>0.02</v>
-      </c>
-      <c r="K42" s="4">
-        <f>I42</f>
-        <v>1</v>
-      </c>
-      <c r="L42" s="4">
-        <f t="shared" si="4"/>
-        <v>0.02</v>
-      </c>
-      <c r="M42" s="4">
-        <f>K42</f>
-        <v>1</v>
-      </c>
-      <c r="N42" s="4">
-        <f t="shared" si="5"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>129</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>171</v>
+        <v>78</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="G43" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="H43" s="4"/>
+        <v>0.16</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="I43" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J43" s="4">
-        <f t="shared" si="3"/>
-        <v>0.03</v>
+        <f>ROUNDUP(G43*I43,2)</f>
+        <v>1.28</v>
       </c>
       <c r="K43" s="4">
-        <f>I43</f>
-        <v>2</v>
+        <f>I65*3</f>
+        <v>0</v>
       </c>
       <c r="L43" s="4">
-        <f t="shared" si="4"/>
-        <v>0.03</v>
+        <f>ROUNDUP(K43*G43,2)</f>
+        <v>0</v>
       </c>
       <c r="M43" s="4">
-        <f>K43</f>
-        <v>2</v>
+        <f>I43/4*2</f>
+        <v>4</v>
       </c>
       <c r="N43" s="4">
-        <f t="shared" si="5"/>
-        <v>0.03</v>
+        <f>ROUNDUP(M43*G43,2)</f>
+        <v>0.64</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>161</v>
+        <v>143</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="G44" s="4">
-        <v>2.1600000000000001E-2</v>
-      </c>
-      <c r="H44" s="4"/>
+        <v>0.14330000000000001</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="I44" s="4">
         <v>1</v>
       </c>
       <c r="J44" s="4">
-        <f t="shared" si="3"/>
-        <v>0.03</v>
+        <f>ROUNDUP(G44*I44,2)</f>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K44" s="4">
         <f>I44</f>
         <v>1</v>
       </c>
       <c r="L44" s="4">
-        <f t="shared" si="4"/>
-        <v>0.03</v>
+        <f>ROUNDUP(K44*G44,2)</f>
+        <v>0.15000000000000002</v>
       </c>
       <c r="M44" s="4">
         <f>K44</f>
         <v>1</v>
       </c>
       <c r="N44" s="4">
-        <f t="shared" si="5"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>162</v>
-      </c>
+        <f>ROUNDUP(M44*G44,2)</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G45" s="4">
-        <v>1.44E-2</v>
+        <v>0.1226</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4">
         <v>1</v>
       </c>
       <c r="J45" s="4">
-        <f t="shared" si="3"/>
-        <v>0.02</v>
+        <f>ROUNDUP(G45*I45,2)</f>
+        <v>0.13</v>
       </c>
       <c r="K45" s="4">
         <f>I45</f>
         <v>1</v>
       </c>
       <c r="L45" s="4">
-        <f t="shared" si="4"/>
-        <v>0.02</v>
+        <f>ROUNDUP(K45*G45,2)</f>
+        <v>0.13</v>
       </c>
       <c r="M45" s="4">
-        <f>K45</f>
+        <f>I45</f>
         <v>1</v>
       </c>
       <c r="N45" s="4">
-        <f t="shared" si="5"/>
-        <v>0.02</v>
+        <f>ROUNDUP(M45*G45,2)</f>
+        <v>0.13</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>160</v>
+        <v>143</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="G46" s="4">
-        <v>1.44E-2</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J46" s="4">
-        <f t="shared" si="3"/>
-        <v>0.29000000000000004</v>
+        <f>ROUNDUP(G46*I46,2)</f>
+        <v>1.3800000000000001</v>
       </c>
       <c r="K46" s="4">
-        <f>I46-4-1</f>
-        <v>15</v>
+        <f>I46-4</f>
+        <v>12</v>
       </c>
       <c r="L46" s="4">
-        <f t="shared" si="4"/>
-        <v>0.22</v>
+        <f>ROUNDUP(K46*G46,2)</f>
+        <v>1.03</v>
       </c>
       <c r="M46" s="4">
-        <f>I46-10-2</f>
-        <v>8</v>
+        <f>I46-10</f>
+        <v>6</v>
       </c>
       <c r="N46" s="4">
-        <f t="shared" si="5"/>
-        <v>0.12</v>
+        <f>ROUNDUP(M46*G46,2)</f>
+        <v>0.52</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>172</v>
+        <v>143</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="G47" s="4">
-        <v>5.1499999999999997E-2</v>
+        <v>7.8600000000000003E-2</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4">
         <v>1</v>
       </c>
       <c r="J47" s="4">
-        <f t="shared" si="3"/>
-        <v>6.0000000000000005E-2</v>
+        <f>ROUNDUP(G47*I47,2)</f>
+        <v>0.08</v>
       </c>
       <c r="K47" s="4">
         <f>I47</f>
         <v>1</v>
       </c>
       <c r="L47" s="4">
-        <f t="shared" si="4"/>
-        <v>6.0000000000000005E-2</v>
+        <f>ROUNDUP(K47*G47,2)</f>
+        <v>0.08</v>
       </c>
       <c r="M47" s="4">
-        <f>K47</f>
+        <f>I47</f>
         <v>1</v>
       </c>
       <c r="N47" s="4">
-        <f t="shared" si="5"/>
-        <v>6.0000000000000005E-2</v>
+        <f>ROUNDUP(M47*G47,2)</f>
+        <v>0.08</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>159</v>
+        <v>143</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="G48" s="4">
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="H48" s="4"/>
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="I48" s="4">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J48" s="4">
-        <f t="shared" si="3"/>
-        <v>0.92</v>
+        <f>ROUNDUP(G48*I48,2)</f>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K48" s="4">
-        <f>I48-4</f>
-        <v>12</v>
+        <f>I48</f>
+        <v>2</v>
       </c>
       <c r="L48" s="4">
-        <f t="shared" si="4"/>
-        <v>0.69</v>
+        <f>ROUNDUP(K48*G48,2)</f>
+        <v>0.15000000000000002</v>
       </c>
       <c r="M48" s="4">
-        <f>I48-10</f>
-        <v>6</v>
+        <f>I48</f>
+        <v>2</v>
       </c>
       <c r="N48" s="4">
-        <f t="shared" si="5"/>
-        <v>0.35000000000000003</v>
+        <f>ROUNDUP(M48*G48,2)</f>
+        <v>0.15000000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>158</v>
+        <v>143</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="G49" s="4">
-        <v>0.34150000000000003</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>168</v>
-      </c>
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="H49" s="4"/>
       <c r="I49" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J49" s="4">
-        <f t="shared" si="3"/>
-        <v>0.35000000000000003</v>
+        <f>ROUNDUP(G49*I49,2)</f>
+        <v>0.92</v>
       </c>
       <c r="K49" s="4">
-        <f>I49</f>
-        <v>1</v>
+        <f>I49-4</f>
+        <v>12</v>
       </c>
       <c r="L49" s="4">
-        <f t="shared" si="4"/>
-        <v>0.35000000000000003</v>
+        <f>ROUNDUP(K49*G49,2)</f>
+        <v>0.69</v>
       </c>
       <c r="M49" s="4">
-        <f>K49</f>
-        <v>1</v>
+        <f>I49-10</f>
+        <v>6</v>
       </c>
       <c r="N49" s="4">
-        <f t="shared" si="5"/>
+        <f>ROUNDUP(M49*G49,2)</f>
         <v>0.35000000000000003</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>157</v>
+        <v>143</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="G50" s="4">
-        <v>8.5699999999999998E-2</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>117</v>
-      </c>
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="H50" s="4"/>
       <c r="I50" s="4">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J50" s="4">
         <f>ROUNDUP(G50*I50,2)</f>
-        <v>1.3800000000000001</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="K50" s="4">
-        <f>I50-4</f>
-        <v>12</v>
+        <f>I50</f>
+        <v>1</v>
       </c>
       <c r="L50" s="4">
         <f>ROUNDUP(K50*G50,2)</f>
-        <v>1.03</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="M50" s="4">
-        <f>I50-10</f>
-        <v>6</v>
+        <f>K50</f>
+        <v>1</v>
       </c>
       <c r="N50" s="4">
         <f>ROUNDUP(M50*G50,2)</f>
-        <v>0.52</v>
+        <v>6.0000000000000005E-2</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
+      <c r="A51" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="B51" s="4" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>155</v>
+        <v>143</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="G51" s="4">
-        <v>1.9E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="J51" s="4">
-        <f t="shared" si="3"/>
-        <v>0.61</v>
+        <f>ROUNDUP(G51*I51,2)</f>
+        <v>0.04</v>
       </c>
       <c r="K51" s="4">
-        <f>I51-4*2</f>
-        <v>24</v>
+        <f>I51</f>
+        <v>1</v>
       </c>
       <c r="L51" s="4">
-        <f t="shared" si="4"/>
-        <v>0.46</v>
+        <f>ROUNDUP(K51*G51,2)</f>
+        <v>0.04</v>
       </c>
       <c r="M51" s="4">
-        <f>I51-10*2</f>
+        <f>I51</f>
+        <v>1</v>
+      </c>
+      <c r="N51" s="4">
+        <f>ROUNDUP(M51*G51,2)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N51" s="4">
-        <f t="shared" si="5"/>
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="C52" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>156</v>
+        <v>143</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="G52" s="4">
-        <v>0.1226</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="J52" s="4">
-        <f>ROUNDUP(FG2*I52,2)</f>
-        <v>0</v>
+        <f>ROUNDUP(G52*I52,2)</f>
+        <v>0.94000000000000006</v>
       </c>
       <c r="K52" s="4">
-        <f>I52</f>
-        <v>1</v>
+        <f>I52-8</f>
+        <v>28</v>
       </c>
       <c r="L52" s="4">
         <f>ROUNDUP(K52*G52,2)</f>
-        <v>0.13</v>
+        <v>0.73</v>
       </c>
       <c r="M52" s="4">
-        <f>I52</f>
-        <v>1</v>
+        <f>I52-20</f>
+        <v>16</v>
       </c>
       <c r="N52" s="4">
         <f>ROUNDUP(M52*G52,2)</f>
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D53" s="4" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F53" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="G53" s="4">
-        <v>2.38</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J53" s="4">
-        <f t="shared" si="3"/>
-        <v>2.38</v>
+        <f>ROUNDUP(G53*I53,2)</f>
+        <v>0.45</v>
       </c>
       <c r="K53" s="4">
-        <f>I53</f>
-        <v>1</v>
+        <f>I53-4</f>
+        <v>13</v>
       </c>
       <c r="L53" s="4">
-        <f t="shared" si="4"/>
-        <v>2.38</v>
+        <f>ROUNDUP(K53*G53,2)</f>
+        <v>0.34</v>
       </c>
       <c r="M53" s="4">
-        <f>K53</f>
-        <v>1</v>
+        <f>I53-10</f>
+        <v>7</v>
       </c>
       <c r="N53" s="4">
-        <f t="shared" si="5"/>
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <f>ROUNDUP(M53*G53,2)</f>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G54" s="4">
-        <v>7.8600000000000003E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J54" s="4">
-        <f t="shared" si="3"/>
-        <v>0.08</v>
+        <f>ROUNDUP(G54*I54,2)</f>
+        <v>0.16</v>
       </c>
       <c r="K54" s="4">
-        <f>I54</f>
-        <v>1</v>
+        <f>I54-1</f>
+        <v>5</v>
       </c>
       <c r="L54" s="4">
-        <f t="shared" si="4"/>
-        <v>0.08</v>
+        <f>ROUNDUP(K54*G54,2)</f>
+        <v>0.13</v>
       </c>
       <c r="M54" s="4">
-        <f>I54</f>
-        <v>1</v>
+        <f>I54-2</f>
+        <v>4</v>
       </c>
       <c r="N54" s="4">
-        <f t="shared" si="5"/>
-        <v>0.08</v>
+        <f>ROUNDUP(M54*G54,2)</f>
+        <v>0.11</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>153</v>
+        <v>143</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="G55" s="4">
-        <v>3.4500000000000003E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J55" s="4">
-        <f t="shared" si="3"/>
-        <v>0.04</v>
+        <f>ROUNDUP(G55*I55,2)</f>
+        <v>0.36</v>
       </c>
       <c r="K55" s="4">
-        <f>I55</f>
-        <v>1</v>
+        <f>I55-4</f>
+        <v>12</v>
       </c>
       <c r="L55" s="4">
-        <f t="shared" si="4"/>
-        <v>0.04</v>
+        <f>ROUNDUP(K55*G55,2)</f>
+        <v>0.27</v>
       </c>
       <c r="M55" s="4">
-        <f>I55</f>
-        <v>1</v>
+        <f>I55-10</f>
+        <v>6</v>
       </c>
       <c r="N55" s="4">
-        <f t="shared" si="5"/>
-        <v>0.04</v>
+        <f>ROUNDUP(M55*G55,2)</f>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>151</v>
+        <v>143</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="G56" s="4">
-        <v>7.3300000000000004E-2</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="H56" s="4"/>
       <c r="I56" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" s="4">
-        <f t="shared" si="3"/>
-        <v>0.15000000000000002</v>
+        <f>ROUNDUP(G56*I56,2)</f>
+        <v>0.03</v>
       </c>
       <c r="K56" s="4">
         <f>I56</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L56" s="4">
-        <f t="shared" si="4"/>
-        <v>0.15000000000000002</v>
+        <f>ROUNDUP(K56*G56,2)</f>
+        <v>0.03</v>
       </c>
       <c r="M56" s="4">
-        <f>I56</f>
-        <v>2</v>
+        <f>K56</f>
+        <v>1</v>
       </c>
       <c r="N56" s="4">
-        <f t="shared" si="5"/>
-        <v>0.15000000000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+        <f>ROUNDUP(M56*G56,2)</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>152</v>
+        <v>143</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="G57" s="4">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>1.9E-2</v>
+      </c>
+      <c r="H57" s="4"/>
       <c r="I57" s="4">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J57" s="4">
         <f>ROUNDUP(G57*I57,2)</f>
-        <v>4.13</v>
+        <v>0.61</v>
       </c>
       <c r="K57" s="4">
-        <f>I57-4</f>
-        <v>12</v>
+        <f>I57-4*2</f>
+        <v>24</v>
       </c>
       <c r="L57" s="4">
         <f>ROUNDUP(K57*G57,2)</f>
-        <v>3.0999999999999996</v>
+        <v>0.46</v>
       </c>
       <c r="M57" s="4">
-        <f>I57-10</f>
-        <v>6</v>
+        <f>I57-10*2</f>
+        <v>12</v>
       </c>
       <c r="N57" s="4">
         <f>ROUNDUP(M57*G57,2)</f>
-        <v>1.55</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>150</v>
+        <v>143</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="G58" s="4">
-        <v>0.14330000000000001</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>1.44E-2</v>
+      </c>
+      <c r="H58" s="4"/>
       <c r="I58" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J58" s="4">
-        <f t="shared" si="3"/>
-        <v>0.15000000000000002</v>
+        <f>ROUNDUP(G58*I58,2)</f>
+        <v>0.29000000000000004</v>
       </c>
       <c r="K58" s="4">
-        <f>I58</f>
-        <v>1</v>
+        <f>I58-4-1</f>
+        <v>15</v>
       </c>
       <c r="L58" s="4">
-        <f t="shared" si="4"/>
-        <v>0.15000000000000002</v>
+        <f>ROUNDUP(K58*G58,2)</f>
+        <v>0.22</v>
       </c>
       <c r="M58" s="4">
-        <f>K58</f>
-        <v>1</v>
+        <f>I58-10-2</f>
+        <v>8</v>
       </c>
       <c r="N58" s="4">
-        <f t="shared" si="5"/>
-        <v>0.15000000000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+        <f>ROUNDUP(M58*G58,2)</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>113</v>
+        <v>143</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="G59" s="4">
-        <v>2.56</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>168</v>
-      </c>
+        <v>1.44E-2</v>
+      </c>
+      <c r="H59" s="4"/>
       <c r="I59" s="4">
         <v>1</v>
       </c>
       <c r="J59" s="4">
-        <f t="shared" si="3"/>
-        <v>2.56</v>
+        <f>ROUNDUP(G59*I59,2)</f>
+        <v>0.02</v>
       </c>
       <c r="K59" s="4">
         <f>I59</f>
         <v>1</v>
       </c>
       <c r="L59" s="4">
-        <f t="shared" si="4"/>
-        <v>2.56</v>
+        <f>ROUNDUP(K59*G59,2)</f>
+        <v>0.02</v>
       </c>
       <c r="M59" s="4">
         <f>K59</f>
         <v>1</v>
       </c>
       <c r="N59" s="4">
-        <f t="shared" si="5"/>
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+        <f>ROUNDUP(M59*G59,2)</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="G60" s="4">
-        <v>2.5999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J60" s="4">
-        <f t="shared" si="3"/>
-        <v>0.16</v>
+        <f>ROUNDUP(G60*I60,2)</f>
+        <v>0.03</v>
       </c>
       <c r="K60" s="4">
-        <f>I60-1</f>
-        <v>5</v>
+        <f>I60</f>
+        <v>2</v>
       </c>
       <c r="L60" s="4">
-        <f t="shared" si="4"/>
-        <v>0.13</v>
+        <f>ROUNDUP(K60*G60,2)</f>
+        <v>0.03</v>
       </c>
       <c r="M60" s="4">
-        <f>I60-2</f>
-        <v>4</v>
+        <f>K60</f>
+        <v>2</v>
       </c>
       <c r="N60" s="4">
-        <f t="shared" si="5"/>
-        <v>0.11</v>
+        <f>ROUNDUP(M60*G60,2)</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="G61" s="4">
-        <v>2.5999999999999999E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J61" s="4">
-        <f t="shared" si="3"/>
-        <v>0.45</v>
+        <f>ROUNDUP(G61*I61,2)</f>
+        <v>0.02</v>
       </c>
       <c r="K61" s="4">
-        <f>I61-4</f>
-        <v>13</v>
+        <f>I61</f>
+        <v>1</v>
       </c>
       <c r="L61" s="4">
-        <f t="shared" si="4"/>
-        <v>0.34</v>
+        <f>ROUNDUP(K61*G61,2)</f>
+        <v>0.02</v>
       </c>
       <c r="M61" s="4">
-        <f>I61-10</f>
-        <v>7</v>
+        <f>K61</f>
+        <v>1</v>
       </c>
       <c r="N61" s="4">
-        <f t="shared" si="5"/>
-        <v>0.19</v>
+        <f>ROUNDUP(M61*G61,2)</f>
+        <v>0.02</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="G62" s="4">
-        <v>2.5999999999999999E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="J62" s="4">
-        <f t="shared" si="3"/>
-        <v>0.94000000000000006</v>
+        <f>ROUNDUP(G62*I62,2)</f>
+        <v>0.02</v>
       </c>
       <c r="K62" s="4">
-        <f>I62-8</f>
-        <v>28</v>
+        <f>I62</f>
+        <v>1</v>
       </c>
       <c r="L62" s="4">
-        <f t="shared" si="4"/>
-        <v>0.73</v>
+        <f>ROUNDUP(K62*G62,2)</f>
+        <v>0.02</v>
       </c>
       <c r="M62" s="4">
-        <f>I62-20</f>
-        <v>16</v>
+        <f>I62</f>
+        <v>1</v>
       </c>
       <c r="N62" s="4">
-        <f t="shared" si="5"/>
-        <v>0.42</v>
+        <f>ROUNDUP(M62*G62,2)</f>
+        <v>0.02</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="G63" s="4">
-        <v>2.1999999999999999E-2</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J63" s="4">
-        <f t="shared" si="3"/>
-        <v>0.36</v>
+        <f>ROUNDUP(G63*I63,2)</f>
+        <v>0.03</v>
       </c>
       <c r="K63" s="4">
-        <f>I63-4</f>
-        <v>12</v>
+        <f>I63</f>
+        <v>5</v>
       </c>
       <c r="L63" s="4">
-        <f t="shared" si="4"/>
-        <v>0.27</v>
+        <f>ROUNDUP(K63*G63,2)</f>
+        <v>0.03</v>
       </c>
       <c r="M63" s="4">
-        <f>I63-10</f>
-        <v>6</v>
+        <f>I63</f>
+        <v>5</v>
       </c>
       <c r="N63" s="4">
-        <f t="shared" si="5"/>
-        <v>0.14000000000000001</v>
+        <f>ROUNDUP(M63*G63,2)</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="I64" s="7" t="s">
+      <c r="I64" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="6">
         <f>SUM(Tabelle13[Gesamt 16])</f>
-        <v>44.070000000000007</v>
-      </c>
-      <c r="K64" s="7" t="s">
+        <v>44.200000000000017</v>
+      </c>
+      <c r="K64" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="L64" s="7">
+      <c r="L64" s="6">
         <f>SUM(Tabelle13[Gesamt 12])</f>
-        <v>52.310000000000024</v>
-      </c>
-      <c r="M64" s="7" t="s">
+        <v>35.030000000000015</v>
+      </c>
+      <c r="M64" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="N64" s="7">
+      <c r="N64" s="6">
         <f>SUM(Tabelle13[Gesamt 6])</f>
         <v>26.71</v>
       </c>
-      <c r="O64" s="7" t="s">
+      <c r="O64" s="6" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F61" r:id="rId1" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0805W8F1501T5E_C4310.html" xr:uid="{DA2AA332-0A80-4720-8AE3-4CBD7189B0F0}"/>
-    <hyperlink ref="F60" r:id="rId2" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0805W8F2200T5E_C17557.html" xr:uid="{08484545-D748-4E85-85EF-C576A7AE46E8}"/>
-    <hyperlink ref="F62" r:id="rId3" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0805W8F1002T5E_C17414.html" xr:uid="{4D10909C-C4AC-49F0-9AA7-D899BC6557CF}"/>
-    <hyperlink ref="F63" r:id="rId4" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0805W8J0332T5E_C26020.html" xr:uid="{FF903F41-72B4-41D3-9B6C-CECB0CF263A5}"/>
-    <hyperlink ref="F58" r:id="rId5" display="https://lcsc.com/product-detail/Tactile-Switches_Omron-Electronics-B3F-1000_C93157.html" xr:uid="{FC97637B-A598-430C-A092-ED9B3683DECD}"/>
-    <hyperlink ref="F56" r:id="rId6" display="https://lcsc.com/product-detail/Screw-terminal_JILN-JL500-50802G01_C709041.html" xr:uid="{9467708E-290A-4C98-AEC0-30C4257BD647}"/>
-    <hyperlink ref="F57" r:id="rId7" display="https://lcsc.com/product-detail/Screw-terminal_JILN-JL500-50803G01_C387825.html" xr:uid="{31A9DAD8-09FB-45A2-AA71-DAB8082430D9}"/>
-    <hyperlink ref="F55" r:id="rId8" display="https://lcsc.com/product-detail/Schottky-Barrier-Diodes-SBD_CBI-1N5817W-SJ_C2828419.html" xr:uid="{9DD96D68-E8AE-4BBB-A744-60BB0FCF7DB4}"/>
-    <hyperlink ref="F54" r:id="rId9" display="https://lcsc.com/product-detail/Crystals_Yangxing-Tech-X49SD16MSD2SC_C16212.html" xr:uid="{14A7A86F-8D8D-4FA5-A1BF-26BA80969105}"/>
-    <hyperlink ref="F51" r:id="rId10" display="https://lcsc.com/product-detail/Pin-Headers_BOOMELE-Boom-Precision-Elec-C49257_C49257.html" xr:uid="{F22E4B76-70FA-4D1B-85C1-716425ED0359}"/>
-    <hyperlink ref="F52" r:id="rId11" display="https://lcsc.com/product-detail/Pin-Headers_HCTL-PZ254-2-05-Z-8-5_C2894966.html" xr:uid="{2B4B7986-8E58-4F40-B630-84D0A71FD24F}"/>
-    <hyperlink ref="F50" r:id="rId12" display="https://lcsc.com/product-detail/MOSFETs_VBsemi-Elec-BS250FTA_C558099.html" xr:uid="{34383013-56C0-4996-97E3-F9C7D76A2550}"/>
-    <hyperlink ref="F49" r:id="rId13" display="https://lcsc.com/product-detail/Optocouplers-Logic-Output_Everlight-Elec-6N137_C142297.html" xr:uid="{6309CE75-4BAE-47E4-8992-3189353B8311}"/>
-    <hyperlink ref="F48" r:id="rId14" display="https://lcsc.com/product-detail/MOSFETs_VBsemi-Elec-BS170FTA_C558098.html" xr:uid="{3C8FCCDE-2A92-46CB-AEA0-25DC9939D645}"/>
-    <hyperlink ref="F46" r:id="rId15" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-span-style-background-color-ff0-LED-span_Foshan-NationStar-Optoelectronics-NCD0805R1_C84256.html" xr:uid="{586BE96B-0C08-4F34-8780-3445A7941F28}"/>
-    <hyperlink ref="F44" r:id="rId16" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-span-style-background-color-ff0-LED-span_Foshan-NationStar-Optoelectronics-NCD0805O1_C84262.html" xr:uid="{0179F28D-29B0-4460-A76B-215D28A14976}"/>
-    <hyperlink ref="F45" r:id="rId17" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-span-style-background-color-ff0-LED-span_Foshan-NationStar-Optoelectronics-NCD0805R1_C84256.html" xr:uid="{C57481AF-6286-481E-9231-9A32C80692FE}"/>
-    <hyperlink ref="F37" r:id="rId18" display="https://lcsc.com/product-detail/Switching-Diode_JSMSEMI-1N4148W_C917030.html" xr:uid="{184DC769-602A-46FF-BD7E-B22FFC4E8D87}"/>
-    <hyperlink ref="F41" r:id="rId19" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL21B104KBCNNNC_C1711.html" xr:uid="{0066973E-858B-4A44-85B6-9DAEFB6F6D0E}"/>
-    <hyperlink ref="F42" r:id="rId20" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL21B334KBFNNNE_C73142.html" xr:uid="{9A927F8E-4C5E-4DE3-8AD8-873559255E6B}"/>
-    <hyperlink ref="F43" r:id="rId21" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL21C220JBANNNC_C1804.html" xr:uid="{BCA9BE50-971B-485D-9862-D092781CEE5A}"/>
-    <hyperlink ref="F47" r:id="rId22" display="https://lcsc.com/product-detail/span-style-background-color-ff0-USB-span-Connectors_SHOU-HAN-MicroXNJ_C404969.html" xr:uid="{CD7DEFAA-9391-4418-83E0-1A43F437DC75}"/>
+    <hyperlink ref="F53" r:id="rId1" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0805W8F1501T5E_C4310.html" xr:uid="{DA2AA332-0A80-4720-8AE3-4CBD7189B0F0}"/>
+    <hyperlink ref="F54" r:id="rId2" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0805W8F2200T5E_C17557.html" xr:uid="{08484545-D748-4E85-85EF-C576A7AE46E8}"/>
+    <hyperlink ref="F52" r:id="rId3" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0805W8F1002T5E_C17414.html" xr:uid="{4D10909C-C4AC-49F0-9AA7-D899BC6557CF}"/>
+    <hyperlink ref="F55" r:id="rId4" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0805W8J0332T5E_C26020.html" xr:uid="{FF903F41-72B4-41D3-9B6C-CECB0CF263A5}"/>
+    <hyperlink ref="F44" r:id="rId5" display="https://lcsc.com/product-detail/Tactile-Switches_Omron-Electronics-B3F-1000_C93157.html" xr:uid="{FC97637B-A598-430C-A092-ED9B3683DECD}"/>
+    <hyperlink ref="F48" r:id="rId6" display="https://lcsc.com/product-detail/Screw-terminal_JILN-JL500-50802G01_C709041.html" xr:uid="{9467708E-290A-4C98-AEC0-30C4257BD647}"/>
+    <hyperlink ref="F40" r:id="rId7" display="https://lcsc.com/product-detail/Screw-terminal_JILN-JL500-50803G01_C387825.html" xr:uid="{31A9DAD8-09FB-45A2-AA71-DAB8082430D9}"/>
+    <hyperlink ref="F51" r:id="rId8" display="https://lcsc.com/product-detail/Schottky-Barrier-Diodes-SBD_CBI-1N5817W-SJ_C2828419.html" xr:uid="{9DD96D68-E8AE-4BBB-A744-60BB0FCF7DB4}"/>
+    <hyperlink ref="F47" r:id="rId9" display="https://lcsc.com/product-detail/Crystals_Yangxing-Tech-X49SD16MSD2SC_C16212.html" xr:uid="{14A7A86F-8D8D-4FA5-A1BF-26BA80969105}"/>
+    <hyperlink ref="F57" r:id="rId10" display="https://lcsc.com/product-detail/Pin-Headers_BOOMELE-Boom-Precision-Elec-C49257_C49257.html" xr:uid="{F22E4B76-70FA-4D1B-85C1-716425ED0359}"/>
+    <hyperlink ref="F45" r:id="rId11" display="https://lcsc.com/product-detail/Pin-Headers_HCTL-PZ254-2-05-Z-8-5_C2894966.html" xr:uid="{2B4B7986-8E58-4F40-B630-84D0A71FD24F}"/>
+    <hyperlink ref="F46" r:id="rId12" display="https://lcsc.com/product-detail/MOSFETs_VBsemi-Elec-BS250FTA_C558099.html" xr:uid="{34383013-56C0-4996-97E3-F9C7D76A2550}"/>
+    <hyperlink ref="F39" r:id="rId13" display="https://lcsc.com/product-detail/Optocouplers-Logic-Output_Everlight-Elec-6N137_C142297.html" xr:uid="{6309CE75-4BAE-47E4-8992-3189353B8311}"/>
+    <hyperlink ref="F49" r:id="rId14" display="https://lcsc.com/product-detail/MOSFETs_VBsemi-Elec-BS170FTA_C558098.html" xr:uid="{3C8FCCDE-2A92-46CB-AEA0-25DC9939D645}"/>
+    <hyperlink ref="F58" r:id="rId15" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-span-style-background-color-ff0-LED-span_Foshan-NationStar-Optoelectronics-NCD0805R1_C84256.html" xr:uid="{586BE96B-0C08-4F34-8780-3445A7941F28}"/>
+    <hyperlink ref="F56" r:id="rId16" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-span-style-background-color-ff0-LED-span_Foshan-NationStar-Optoelectronics-NCD0805O1_C84262.html" xr:uid="{0179F28D-29B0-4460-A76B-215D28A14976}"/>
+    <hyperlink ref="F59" r:id="rId17" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-span-style-background-color-ff0-LED-span_Foshan-NationStar-Optoelectronics-NCD0805R1_C84256.html" xr:uid="{C57481AF-6286-481E-9231-9A32C80692FE}"/>
+    <hyperlink ref="F62" r:id="rId18" display="https://lcsc.com/product-detail/Switching-Diode_JSMSEMI-1N4148W_C917030.html" xr:uid="{184DC769-602A-46FF-BD7E-B22FFC4E8D87}"/>
+    <hyperlink ref="F63" r:id="rId19" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL21B104KBCNNNC_C1711.html" xr:uid="{0066973E-858B-4A44-85B6-9DAEFB6F6D0E}"/>
+    <hyperlink ref="F61" r:id="rId20" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL21B334KBFNNNE_C73142.html" xr:uid="{9A927F8E-4C5E-4DE3-8AD8-873559255E6B}"/>
+    <hyperlink ref="F60" r:id="rId21" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL21C220JBANNNC_C1804.html" xr:uid="{BCA9BE50-971B-485D-9862-D092781CEE5A}"/>
+    <hyperlink ref="F50" r:id="rId22" display="https://lcsc.com/product-detail/span-style-background-color-ff0-USB-span-Connectors_SHOU-HAN-MicroXNJ_C404969.html" xr:uid="{CD7DEFAA-9391-4418-83E0-1A43F437DC75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
